--- a/测试数据表.xlsx
+++ b/测试数据表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86890D-23EC-4419-A069-CC0C37E5E580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAA449D-316B-4121-A151-E98C45D8E0CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="90">
   <si>
     <t>充电开始时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -380,6 +380,10 @@
     <t>北京市朝阳区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>星星充电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -730,16 +734,16 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1094,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1314,10 +1318,10 @@
       <c r="B3" s="20">
         <v>44471.480555555601</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="59">
         <v>13800000001</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="59" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1326,16 +1330,16 @@
       <c r="F3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="61" t="s">
-        <v>53</v>
+      <c r="H3" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="I3" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="59" t="s">
         <v>54</v>
       </c>
       <c r="K3" s="22">
@@ -1344,7 +1348,7 @@
       <c r="L3" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="59" t="s">
         <v>53</v>
       </c>
       <c r="N3" s="23">
@@ -1420,25 +1424,25 @@
       <c r="B4" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="65"/>
-      <c r="J4" s="61"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="22">
         <v>116.495531</v>
       </c>
       <c r="L4" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M4" s="61"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="23">
         <v>43592</v>
       </c>
@@ -1512,25 +1516,25 @@
       <c r="B5" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="65"/>
-      <c r="J5" s="61"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="22">
         <v>116.495531</v>
       </c>
       <c r="L5" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M5" s="61"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="23">
         <v>43592</v>
       </c>
@@ -1604,25 +1608,25 @@
       <c r="B6" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="65"/>
-      <c r="J6" s="61"/>
+      <c r="J6" s="59"/>
       <c r="K6" s="22">
         <v>116.495531</v>
       </c>
       <c r="L6" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M6" s="61"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="23">
         <v>43592</v>
       </c>
@@ -1696,25 +1700,25 @@
       <c r="B7" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="65"/>
-      <c r="J7" s="61"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="22">
         <v>116.495531</v>
       </c>
       <c r="L7" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M7" s="61"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="23">
         <v>43592</v>
       </c>
@@ -1788,25 +1792,25 @@
       <c r="B8" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="65"/>
-      <c r="J8" s="61"/>
+      <c r="J8" s="59"/>
       <c r="K8" s="22">
         <v>116.495531</v>
       </c>
       <c r="L8" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M8" s="61"/>
+      <c r="M8" s="59"/>
       <c r="N8" s="23">
         <v>43592</v>
       </c>
@@ -1880,25 +1884,25 @@
       <c r="B9" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="65"/>
-      <c r="J9" s="61"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="22">
         <v>116.495531</v>
       </c>
       <c r="L9" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M9" s="61"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="23">
         <v>43592</v>
       </c>
@@ -1972,25 +1976,25 @@
       <c r="B10" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="65"/>
-      <c r="J10" s="61"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="22">
         <v>116.495531</v>
       </c>
       <c r="L10" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M10" s="61"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="23">
         <v>43592</v>
       </c>
@@ -2064,25 +2068,25 @@
       <c r="B11" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="65"/>
-      <c r="J11" s="61"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="22">
         <v>116.495531</v>
       </c>
       <c r="L11" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M11" s="61"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="23">
         <v>43592</v>
       </c>
@@ -2156,25 +2160,25 @@
       <c r="B12" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="65"/>
-      <c r="J12" s="61"/>
+      <c r="J12" s="59"/>
       <c r="K12" s="22">
         <v>116.495531</v>
       </c>
       <c r="L12" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M12" s="61"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="23">
         <v>43592</v>
       </c>
@@ -2248,25 +2252,25 @@
       <c r="B13" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="65"/>
-      <c r="J13" s="61"/>
+      <c r="J13" s="59"/>
       <c r="K13" s="22">
         <v>116.495531</v>
       </c>
       <c r="L13" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M13" s="61"/>
+      <c r="M13" s="59"/>
       <c r="N13" s="23">
         <v>43592</v>
       </c>
@@ -2340,25 +2344,25 @@
       <c r="B14" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="30" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="66"/>
-      <c r="J14" s="62"/>
+      <c r="J14" s="60"/>
       <c r="K14" s="32">
         <v>116.495531</v>
       </c>
       <c r="L14" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M14" s="62"/>
+      <c r="M14" s="60"/>
       <c r="N14" s="33">
         <v>43592</v>
       </c>
@@ -2430,10 +2434,10 @@
       <c r="B15" s="20">
         <v>44471.480555555601</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="61" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2442,16 +2446,16 @@
       <c r="F15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="59" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="22">
@@ -2460,7 +2464,7 @@
       <c r="L15" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N15" s="23">
@@ -2536,25 +2540,25 @@
       <c r="B16" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="60"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="64"/>
-      <c r="J16" s="61"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="22">
         <v>116.495531</v>
       </c>
       <c r="L16" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M16" s="60"/>
+      <c r="M16" s="62"/>
       <c r="N16" s="23">
         <v>43958</v>
       </c>
@@ -2628,25 +2632,25 @@
       <c r="B17" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="64"/>
-      <c r="J17" s="61"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="22">
         <v>116.495531</v>
       </c>
       <c r="L17" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M17" s="60"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="23">
         <v>43958</v>
       </c>
@@ -2720,25 +2724,25 @@
       <c r="B18" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="64"/>
-      <c r="J18" s="61"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="22">
         <v>116.495531</v>
       </c>
       <c r="L18" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M18" s="60"/>
+      <c r="M18" s="62"/>
       <c r="N18" s="23">
         <v>43958</v>
       </c>
@@ -2812,25 +2816,25 @@
       <c r="B19" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="64"/>
-      <c r="J19" s="61"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="22">
         <v>116.495531</v>
       </c>
       <c r="L19" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M19" s="60"/>
+      <c r="M19" s="62"/>
       <c r="N19" s="23">
         <v>43958</v>
       </c>
@@ -2904,25 +2908,25 @@
       <c r="B20" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="64"/>
-      <c r="J20" s="61"/>
+      <c r="J20" s="59"/>
       <c r="K20" s="22">
         <v>116.495531</v>
       </c>
       <c r="L20" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M20" s="60"/>
+      <c r="M20" s="62"/>
       <c r="N20" s="23">
         <v>43958</v>
       </c>
@@ -2996,25 +3000,25 @@
       <c r="B21" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="64"/>
-      <c r="J21" s="61"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="22">
         <v>116.495531</v>
       </c>
       <c r="L21" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M21" s="60"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="23">
         <v>43958</v>
       </c>
@@ -3088,25 +3092,25 @@
       <c r="B22" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="64"/>
-      <c r="J22" s="61"/>
+      <c r="J22" s="59"/>
       <c r="K22" s="22">
         <v>116.495531</v>
       </c>
       <c r="L22" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M22" s="60"/>
+      <c r="M22" s="62"/>
       <c r="N22" s="23">
         <v>43958</v>
       </c>
@@ -3180,25 +3184,25 @@
       <c r="B23" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="65"/>
-      <c r="J23" s="61"/>
+      <c r="J23" s="59"/>
       <c r="K23" s="22">
         <v>116.495531</v>
       </c>
       <c r="L23" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M23" s="61"/>
+      <c r="M23" s="59"/>
       <c r="N23" s="23">
         <v>43958</v>
       </c>
@@ -3272,25 +3276,25 @@
       <c r="B24" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="65"/>
-      <c r="J24" s="61"/>
+      <c r="J24" s="59"/>
       <c r="K24" s="22">
         <v>116.495531</v>
       </c>
       <c r="L24" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M24" s="61"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="23">
         <v>43958</v>
       </c>
@@ -3364,25 +3368,25 @@
       <c r="B25" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="65"/>
-      <c r="J25" s="61"/>
+      <c r="J25" s="59"/>
       <c r="K25" s="22">
         <v>116.495531</v>
       </c>
       <c r="L25" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M25" s="61"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="23">
         <v>43958</v>
       </c>
@@ -3456,25 +3460,25 @@
       <c r="B26" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="30" t="s">
         <v>63</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="66"/>
-      <c r="J26" s="62"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="32">
         <v>116.495531</v>
       </c>
       <c r="L26" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="60"/>
       <c r="N26" s="23">
         <v>43958</v>
       </c>
@@ -3547,10 +3551,10 @@
       <c r="B27" s="20">
         <v>44471.480555555601</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="61">
         <v>13800000002</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="61" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="30" t="s">
@@ -3559,16 +3563,16 @@
       <c r="F27" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I27" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="59" t="s">
         <v>54</v>
       </c>
       <c r="K27" s="32">
@@ -3577,7 +3581,7 @@
       <c r="L27" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N27" s="33">
@@ -3652,25 +3656,25 @@
       <c r="B28" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="61"/>
+      <c r="J28" s="59"/>
       <c r="K28" s="32">
         <v>116.495531</v>
       </c>
       <c r="L28" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M28" s="60"/>
+      <c r="M28" s="62"/>
       <c r="N28" s="33">
         <v>43592</v>
       </c>
@@ -3743,25 +3747,25 @@
       <c r="B29" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="64"/>
-      <c r="J29" s="61"/>
+      <c r="J29" s="59"/>
       <c r="K29" s="32">
         <v>116.495531</v>
       </c>
       <c r="L29" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M29" s="60"/>
+      <c r="M29" s="62"/>
       <c r="N29" s="33">
         <v>43592</v>
       </c>
@@ -3834,25 +3838,25 @@
       <c r="B30" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="64"/>
-      <c r="J30" s="61"/>
+      <c r="J30" s="59"/>
       <c r="K30" s="32">
         <v>116.495531</v>
       </c>
       <c r="L30" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M30" s="60"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="33">
         <v>43592</v>
       </c>
@@ -3925,25 +3929,25 @@
       <c r="B31" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="64"/>
-      <c r="J31" s="61"/>
+      <c r="J31" s="59"/>
       <c r="K31" s="32">
         <v>116.495531</v>
       </c>
       <c r="L31" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M31" s="60"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="33">
         <v>43592</v>
       </c>
@@ -4016,25 +4020,25 @@
       <c r="B32" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="64"/>
-      <c r="J32" s="61"/>
+      <c r="J32" s="59"/>
       <c r="K32" s="32">
         <v>116.495531</v>
       </c>
       <c r="L32" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M32" s="60"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="33">
         <v>43592</v>
       </c>
@@ -4107,25 +4111,25 @@
       <c r="B33" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="64"/>
-      <c r="J33" s="61"/>
+      <c r="J33" s="59"/>
       <c r="K33" s="32">
         <v>116.495531</v>
       </c>
       <c r="L33" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M33" s="60"/>
+      <c r="M33" s="62"/>
       <c r="N33" s="33">
         <v>43592</v>
       </c>
@@ -4198,25 +4202,25 @@
       <c r="B34" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="62"/>
       <c r="I34" s="64"/>
-      <c r="J34" s="61"/>
+      <c r="J34" s="59"/>
       <c r="K34" s="32">
         <v>116.495531</v>
       </c>
       <c r="L34" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M34" s="60"/>
+      <c r="M34" s="62"/>
       <c r="N34" s="33">
         <v>43592</v>
       </c>
@@ -4289,25 +4293,25 @@
       <c r="B35" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F35" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="65"/>
-      <c r="J35" s="61"/>
+      <c r="J35" s="59"/>
       <c r="K35" s="32">
         <v>116.495531</v>
       </c>
       <c r="L35" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M35" s="61"/>
+      <c r="M35" s="59"/>
       <c r="N35" s="33">
         <v>43592</v>
       </c>
@@ -4380,25 +4384,25 @@
       <c r="B36" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F36" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="65"/>
-      <c r="J36" s="61"/>
+      <c r="J36" s="59"/>
       <c r="K36" s="32">
         <v>116.495531</v>
       </c>
       <c r="L36" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M36" s="61"/>
+      <c r="M36" s="59"/>
       <c r="N36" s="33">
         <v>43592</v>
       </c>
@@ -4471,25 +4475,25 @@
       <c r="B37" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
       <c r="I37" s="65"/>
-      <c r="J37" s="61"/>
+      <c r="J37" s="59"/>
       <c r="K37" s="32">
         <v>116.495531</v>
       </c>
       <c r="L37" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M37" s="61"/>
+      <c r="M37" s="59"/>
       <c r="N37" s="33">
         <v>43592</v>
       </c>
@@ -4562,25 +4566,25 @@
       <c r="B38" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="66"/>
-      <c r="J38" s="62"/>
+      <c r="J38" s="60"/>
       <c r="K38" s="32">
         <v>116.495531</v>
       </c>
       <c r="L38" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M38" s="62"/>
+      <c r="M38" s="60"/>
       <c r="N38" s="33">
         <v>43592</v>
       </c>
@@ -4653,10 +4657,10 @@
       <c r="B39" s="20">
         <v>44471.480555555601</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="61" t="s">
         <v>62</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -4665,16 +4669,16 @@
       <c r="F39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="59" t="s">
+      <c r="H39" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I39" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="59" t="s">
+      <c r="J39" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K39" s="22">
@@ -4683,7 +4687,7 @@
       <c r="L39" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M39" s="59" t="s">
+      <c r="M39" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N39" s="23">
@@ -4758,25 +4762,25 @@
       <c r="B40" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="64"/>
-      <c r="J40" s="60"/>
+      <c r="J40" s="62"/>
       <c r="K40" s="22">
         <v>116.495531</v>
       </c>
       <c r="L40" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M40" s="60"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="23">
         <v>43958</v>
       </c>
@@ -4849,25 +4853,25 @@
       <c r="B41" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
       <c r="I41" s="64"/>
-      <c r="J41" s="60"/>
+      <c r="J41" s="62"/>
       <c r="K41" s="22">
         <v>116.495531</v>
       </c>
       <c r="L41" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M41" s="60"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="23">
         <v>43958</v>
       </c>
@@ -4940,25 +4944,25 @@
       <c r="B42" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
       <c r="E42" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
       <c r="I42" s="64"/>
-      <c r="J42" s="60"/>
+      <c r="J42" s="62"/>
       <c r="K42" s="22">
         <v>116.495531</v>
       </c>
       <c r="L42" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M42" s="60"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="23">
         <v>43958</v>
       </c>
@@ -5031,25 +5035,25 @@
       <c r="B43" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
       <c r="I43" s="64"/>
-      <c r="J43" s="60"/>
+      <c r="J43" s="62"/>
       <c r="K43" s="22">
         <v>116.495531</v>
       </c>
       <c r="L43" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M43" s="60"/>
+      <c r="M43" s="62"/>
       <c r="N43" s="23">
         <v>43958</v>
       </c>
@@ -5122,25 +5126,25 @@
       <c r="B44" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
       <c r="I44" s="64"/>
-      <c r="J44" s="60"/>
+      <c r="J44" s="62"/>
       <c r="K44" s="22">
         <v>116.495531</v>
       </c>
       <c r="L44" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M44" s="60"/>
+      <c r="M44" s="62"/>
       <c r="N44" s="23">
         <v>43958</v>
       </c>
@@ -5213,25 +5217,25 @@
       <c r="B45" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
       <c r="I45" s="64"/>
-      <c r="J45" s="60"/>
+      <c r="J45" s="62"/>
       <c r="K45" s="22">
         <v>116.495531</v>
       </c>
       <c r="L45" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M45" s="60"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="23">
         <v>43958</v>
       </c>
@@ -5304,25 +5308,25 @@
       <c r="B46" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
       <c r="I46" s="64"/>
-      <c r="J46" s="60"/>
+      <c r="J46" s="62"/>
       <c r="K46" s="22">
         <v>116.495531</v>
       </c>
       <c r="L46" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M46" s="60"/>
+      <c r="M46" s="62"/>
       <c r="N46" s="23">
         <v>43958</v>
       </c>
@@ -5395,25 +5399,25 @@
       <c r="B47" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="65"/>
-      <c r="J47" s="61"/>
+      <c r="J47" s="59"/>
       <c r="K47" s="22">
         <v>116.495531</v>
       </c>
       <c r="L47" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M47" s="61"/>
+      <c r="M47" s="59"/>
       <c r="N47" s="23">
         <v>43958</v>
       </c>
@@ -5486,25 +5490,25 @@
       <c r="B48" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="61"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="59"/>
       <c r="I48" s="65"/>
-      <c r="J48" s="61"/>
+      <c r="J48" s="59"/>
       <c r="K48" s="22">
         <v>116.495531</v>
       </c>
       <c r="L48" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M48" s="61"/>
+      <c r="M48" s="59"/>
       <c r="N48" s="23">
         <v>43958</v>
       </c>
@@ -5577,25 +5581,25 @@
       <c r="B49" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="65"/>
-      <c r="J49" s="61"/>
+      <c r="J49" s="59"/>
       <c r="K49" s="22">
         <v>116.495531</v>
       </c>
       <c r="L49" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M49" s="61"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="23">
         <v>43958</v>
       </c>
@@ -5668,25 +5672,25 @@
       <c r="B50" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="66"/>
-      <c r="J50" s="62"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="32">
         <v>116.495531</v>
       </c>
       <c r="L50" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M50" s="62"/>
+      <c r="M50" s="60"/>
       <c r="N50" s="23">
         <v>43958</v>
       </c>
@@ -5759,10 +5763,10 @@
       <c r="B51" s="20">
         <v>44471.480555555601</v>
       </c>
-      <c r="C51" s="59">
+      <c r="C51" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="61" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -5771,16 +5775,16 @@
       <c r="F51" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G51" s="59" t="s">
+      <c r="G51" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I51" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J51" s="59" t="s">
+      <c r="J51" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K51" s="22">
@@ -5789,7 +5793,7 @@
       <c r="L51" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M51" s="59" t="s">
+      <c r="M51" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N51" s="23">
@@ -5864,25 +5868,25 @@
       <c r="B52" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="61"/>
-      <c r="H52" s="60"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="64"/>
-      <c r="J52" s="60"/>
+      <c r="J52" s="62"/>
       <c r="K52" s="22">
         <v>116.495531</v>
       </c>
       <c r="L52" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M52" s="60"/>
+      <c r="M52" s="62"/>
       <c r="N52" s="23">
         <v>43592</v>
       </c>
@@ -5955,25 +5959,25 @@
       <c r="B53" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="60"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="62"/>
       <c r="I53" s="64"/>
-      <c r="J53" s="60"/>
+      <c r="J53" s="62"/>
       <c r="K53" s="22">
         <v>116.495531</v>
       </c>
       <c r="L53" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M53" s="60"/>
+      <c r="M53" s="62"/>
       <c r="N53" s="23">
         <v>43592</v>
       </c>
@@ -6046,25 +6050,25 @@
       <c r="B54" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G54" s="61"/>
-      <c r="H54" s="60"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="62"/>
       <c r="I54" s="64"/>
-      <c r="J54" s="60"/>
+      <c r="J54" s="62"/>
       <c r="K54" s="22">
         <v>116.495531</v>
       </c>
       <c r="L54" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M54" s="60"/>
+      <c r="M54" s="62"/>
       <c r="N54" s="23">
         <v>43592</v>
       </c>
@@ -6137,25 +6141,25 @@
       <c r="B55" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="60"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="62"/>
       <c r="I55" s="64"/>
-      <c r="J55" s="60"/>
+      <c r="J55" s="62"/>
       <c r="K55" s="22">
         <v>116.495531</v>
       </c>
       <c r="L55" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M55" s="60"/>
+      <c r="M55" s="62"/>
       <c r="N55" s="23">
         <v>43592</v>
       </c>
@@ -6228,25 +6232,25 @@
       <c r="B56" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
       <c r="E56" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G56" s="61"/>
-      <c r="H56" s="60"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="62"/>
       <c r="I56" s="64"/>
-      <c r="J56" s="60"/>
+      <c r="J56" s="62"/>
       <c r="K56" s="22">
         <v>116.495531</v>
       </c>
       <c r="L56" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M56" s="60"/>
+      <c r="M56" s="62"/>
       <c r="N56" s="23">
         <v>43592</v>
       </c>
@@ -6319,25 +6323,25 @@
       <c r="B57" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
       <c r="E57" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="60"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="62"/>
       <c r="I57" s="64"/>
-      <c r="J57" s="60"/>
+      <c r="J57" s="62"/>
       <c r="K57" s="22">
         <v>116.495531</v>
       </c>
       <c r="L57" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M57" s="60"/>
+      <c r="M57" s="62"/>
       <c r="N57" s="23">
         <v>43592</v>
       </c>
@@ -6410,25 +6414,25 @@
       <c r="B58" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="61"/>
-      <c r="H58" s="60"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="62"/>
       <c r="I58" s="64"/>
-      <c r="J58" s="60"/>
+      <c r="J58" s="62"/>
       <c r="K58" s="22">
         <v>116.495531</v>
       </c>
       <c r="L58" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M58" s="60"/>
+      <c r="M58" s="62"/>
       <c r="N58" s="23">
         <v>43592</v>
       </c>
@@ -6501,25 +6505,25 @@
       <c r="B59" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
       <c r="I59" s="65"/>
-      <c r="J59" s="61"/>
+      <c r="J59" s="59"/>
       <c r="K59" s="22">
         <v>116.495531</v>
       </c>
       <c r="L59" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M59" s="61"/>
+      <c r="M59" s="59"/>
       <c r="N59" s="23">
         <v>43592</v>
       </c>
@@ -6592,25 +6596,25 @@
       <c r="B60" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
       <c r="I60" s="65"/>
-      <c r="J60" s="61"/>
+      <c r="J60" s="59"/>
       <c r="K60" s="22">
         <v>116.495531</v>
       </c>
       <c r="L60" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M60" s="61"/>
+      <c r="M60" s="59"/>
       <c r="N60" s="23">
         <v>43592</v>
       </c>
@@ -6683,25 +6687,25 @@
       <c r="B61" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
       <c r="I61" s="65"/>
-      <c r="J61" s="61"/>
+      <c r="J61" s="59"/>
       <c r="K61" s="22">
         <v>116.495531</v>
       </c>
       <c r="L61" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M61" s="61"/>
+      <c r="M61" s="59"/>
       <c r="N61" s="23">
         <v>43592</v>
       </c>
@@ -6774,25 +6778,25 @@
       <c r="B62" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
       <c r="E62" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
       <c r="I62" s="66"/>
-      <c r="J62" s="62"/>
+      <c r="J62" s="60"/>
       <c r="K62" s="32">
         <v>116.495531</v>
       </c>
       <c r="L62" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M62" s="62"/>
+      <c r="M62" s="60"/>
       <c r="N62" s="33">
         <v>43592</v>
       </c>
@@ -6865,10 +6869,10 @@
       <c r="B63" s="20">
         <v>44471.480555555601</v>
       </c>
-      <c r="C63" s="59">
+      <c r="C63" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="61" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -6877,16 +6881,16 @@
       <c r="F63" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G63" s="59" t="s">
+      <c r="G63" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I63" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J63" s="59" t="s">
+      <c r="J63" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K63" s="22">
@@ -6895,7 +6899,7 @@
       <c r="L63" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M63" s="59" t="s">
+      <c r="M63" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N63" s="23">
@@ -6970,25 +6974,25 @@
       <c r="B64" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
       <c r="E64" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="61"/>
-      <c r="H64" s="60"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="62"/>
       <c r="I64" s="64"/>
-      <c r="J64" s="60"/>
+      <c r="J64" s="62"/>
       <c r="K64" s="22">
         <v>116.495531</v>
       </c>
       <c r="L64" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M64" s="60"/>
+      <c r="M64" s="62"/>
       <c r="N64" s="23">
         <v>43958</v>
       </c>
@@ -7061,25 +7065,25 @@
       <c r="B65" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
       <c r="E65" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F65" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G65" s="61"/>
-      <c r="H65" s="60"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="62"/>
       <c r="I65" s="64"/>
-      <c r="J65" s="60"/>
+      <c r="J65" s="62"/>
       <c r="K65" s="22">
         <v>116.495531</v>
       </c>
       <c r="L65" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M65" s="60"/>
+      <c r="M65" s="62"/>
       <c r="N65" s="23">
         <v>43958</v>
       </c>
@@ -7152,25 +7156,25 @@
       <c r="B66" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
       <c r="E66" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F66" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="61"/>
-      <c r="H66" s="60"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="62"/>
       <c r="I66" s="64"/>
-      <c r="J66" s="60"/>
+      <c r="J66" s="62"/>
       <c r="K66" s="22">
         <v>116.495531</v>
       </c>
       <c r="L66" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M66" s="60"/>
+      <c r="M66" s="62"/>
       <c r="N66" s="23">
         <v>43958</v>
       </c>
@@ -7243,25 +7247,25 @@
       <c r="B67" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
       <c r="E67" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="61"/>
-      <c r="H67" s="60"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="62"/>
       <c r="I67" s="64"/>
-      <c r="J67" s="60"/>
+      <c r="J67" s="62"/>
       <c r="K67" s="22">
         <v>116.495531</v>
       </c>
       <c r="L67" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M67" s="60"/>
+      <c r="M67" s="62"/>
       <c r="N67" s="23">
         <v>43958</v>
       </c>
@@ -7334,25 +7338,25 @@
       <c r="B68" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
       <c r="E68" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="61"/>
-      <c r="H68" s="60"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="62"/>
       <c r="I68" s="64"/>
-      <c r="J68" s="60"/>
+      <c r="J68" s="62"/>
       <c r="K68" s="22">
         <v>116.495531</v>
       </c>
       <c r="L68" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M68" s="60"/>
+      <c r="M68" s="62"/>
       <c r="N68" s="23">
         <v>43958</v>
       </c>
@@ -7425,25 +7429,25 @@
       <c r="B69" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F69" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G69" s="61"/>
-      <c r="H69" s="60"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="62"/>
       <c r="I69" s="64"/>
-      <c r="J69" s="60"/>
+      <c r="J69" s="62"/>
       <c r="K69" s="22">
         <v>116.495531</v>
       </c>
       <c r="L69" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M69" s="60"/>
+      <c r="M69" s="62"/>
       <c r="N69" s="23">
         <v>43958</v>
       </c>
@@ -7516,25 +7520,25 @@
       <c r="B70" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
       <c r="E70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F70" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="61"/>
-      <c r="H70" s="60"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="62"/>
       <c r="I70" s="64"/>
-      <c r="J70" s="60"/>
+      <c r="J70" s="62"/>
       <c r="K70" s="22">
         <v>116.495531</v>
       </c>
       <c r="L70" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M70" s="60"/>
+      <c r="M70" s="62"/>
       <c r="N70" s="23">
         <v>43958</v>
       </c>
@@ -7607,25 +7611,25 @@
       <c r="B71" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
       <c r="I71" s="65"/>
-      <c r="J71" s="61"/>
+      <c r="J71" s="59"/>
       <c r="K71" s="22">
         <v>116.495531</v>
       </c>
       <c r="L71" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M71" s="61"/>
+      <c r="M71" s="59"/>
       <c r="N71" s="23">
         <v>43958</v>
       </c>
@@ -7698,25 +7702,25 @@
       <c r="B72" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F72" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
       <c r="I72" s="65"/>
-      <c r="J72" s="61"/>
+      <c r="J72" s="59"/>
       <c r="K72" s="22">
         <v>116.495531</v>
       </c>
       <c r="L72" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M72" s="61"/>
+      <c r="M72" s="59"/>
       <c r="N72" s="23">
         <v>43958</v>
       </c>
@@ -7789,25 +7793,25 @@
       <c r="B73" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F73" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
       <c r="I73" s="65"/>
-      <c r="J73" s="61"/>
+      <c r="J73" s="59"/>
       <c r="K73" s="22">
         <v>116.495531</v>
       </c>
       <c r="L73" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M73" s="61"/>
+      <c r="M73" s="59"/>
       <c r="N73" s="23">
         <v>43958</v>
       </c>
@@ -7880,25 +7884,25 @@
       <c r="B74" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
       <c r="E74" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F74" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
       <c r="I74" s="66"/>
-      <c r="J74" s="62"/>
+      <c r="J74" s="60"/>
       <c r="K74" s="32">
         <v>116.495531</v>
       </c>
       <c r="L74" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M74" s="62"/>
+      <c r="M74" s="60"/>
       <c r="N74" s="23">
         <v>43958</v>
       </c>
@@ -7971,10 +7975,10 @@
       <c r="B75" s="20">
         <v>44471.480555555601</v>
       </c>
-      <c r="C75" s="59">
+      <c r="C75" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="61" t="s">
         <v>62</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -7983,16 +7987,16 @@
       <c r="F75" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G75" s="59" t="s">
+      <c r="G75" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H75" s="59" t="s">
+      <c r="H75" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I75" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J75" s="59" t="s">
+      <c r="J75" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K75" s="22">
@@ -8001,7 +8005,7 @@
       <c r="L75" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M75" s="59" t="s">
+      <c r="M75" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N75" s="23">
@@ -8076,25 +8080,25 @@
       <c r="B76" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
       <c r="E76" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F76" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
       <c r="I76" s="64"/>
-      <c r="J76" s="60"/>
+      <c r="J76" s="62"/>
       <c r="K76" s="22">
         <v>116.495531</v>
       </c>
       <c r="L76" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M76" s="60"/>
+      <c r="M76" s="62"/>
       <c r="N76" s="23">
         <v>44323</v>
       </c>
@@ -8167,25 +8171,25 @@
       <c r="B77" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
       <c r="E77" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F77" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
       <c r="I77" s="64"/>
-      <c r="J77" s="60"/>
+      <c r="J77" s="62"/>
       <c r="K77" s="22">
         <v>116.495531</v>
       </c>
       <c r="L77" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M77" s="60"/>
+      <c r="M77" s="62"/>
       <c r="N77" s="23">
         <v>44323</v>
       </c>
@@ -8258,25 +8262,25 @@
       <c r="B78" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
       <c r="E78" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F78" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
       <c r="I78" s="64"/>
-      <c r="J78" s="60"/>
+      <c r="J78" s="62"/>
       <c r="K78" s="22">
         <v>116.495531</v>
       </c>
       <c r="L78" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M78" s="60"/>
+      <c r="M78" s="62"/>
       <c r="N78" s="23">
         <v>44323</v>
       </c>
@@ -8349,25 +8353,25 @@
       <c r="B79" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
       <c r="E79" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F79" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
       <c r="I79" s="64"/>
-      <c r="J79" s="60"/>
+      <c r="J79" s="62"/>
       <c r="K79" s="22">
         <v>116.495531</v>
       </c>
       <c r="L79" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M79" s="60"/>
+      <c r="M79" s="62"/>
       <c r="N79" s="23">
         <v>44323</v>
       </c>
@@ -8440,25 +8444,25 @@
       <c r="B80" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
       <c r="E80" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
       <c r="I80" s="64"/>
-      <c r="J80" s="60"/>
+      <c r="J80" s="62"/>
       <c r="K80" s="22">
         <v>116.495531</v>
       </c>
       <c r="L80" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M80" s="60"/>
+      <c r="M80" s="62"/>
       <c r="N80" s="23">
         <v>44323</v>
       </c>
@@ -8531,25 +8535,25 @@
       <c r="B81" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
       <c r="E81" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F81" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="64"/>
-      <c r="J81" s="60"/>
+      <c r="J81" s="62"/>
       <c r="K81" s="22">
         <v>116.495531</v>
       </c>
       <c r="L81" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M81" s="60"/>
+      <c r="M81" s="62"/>
       <c r="N81" s="23">
         <v>44323</v>
       </c>
@@ -8622,25 +8626,25 @@
       <c r="B82" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
       <c r="E82" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F82" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
       <c r="I82" s="64"/>
-      <c r="J82" s="60"/>
+      <c r="J82" s="62"/>
       <c r="K82" s="22">
         <v>116.495531</v>
       </c>
       <c r="L82" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M82" s="60"/>
+      <c r="M82" s="62"/>
       <c r="N82" s="23">
         <v>44323</v>
       </c>
@@ -8713,25 +8717,25 @@
       <c r="B83" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G83" s="60"/>
-      <c r="H83" s="61"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="59"/>
       <c r="I83" s="65"/>
-      <c r="J83" s="61"/>
+      <c r="J83" s="59"/>
       <c r="K83" s="22">
         <v>116.495531</v>
       </c>
       <c r="L83" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M83" s="61"/>
+      <c r="M83" s="59"/>
       <c r="N83" s="23">
         <v>44323</v>
       </c>
@@ -8804,25 +8808,25 @@
       <c r="B84" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
       <c r="E84" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F84" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G84" s="60"/>
-      <c r="H84" s="61"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="59"/>
       <c r="I84" s="65"/>
-      <c r="J84" s="61"/>
+      <c r="J84" s="59"/>
       <c r="K84" s="22">
         <v>116.495531</v>
       </c>
       <c r="L84" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M84" s="61"/>
+      <c r="M84" s="59"/>
       <c r="N84" s="23">
         <v>44323</v>
       </c>
@@ -8895,25 +8899,25 @@
       <c r="B85" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
       <c r="E85" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F85" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G85" s="60"/>
-      <c r="H85" s="61"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="59"/>
       <c r="I85" s="65"/>
-      <c r="J85" s="61"/>
+      <c r="J85" s="59"/>
       <c r="K85" s="22">
         <v>116.495531</v>
       </c>
       <c r="L85" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M85" s="61"/>
+      <c r="M85" s="59"/>
       <c r="N85" s="23">
         <v>44323</v>
       </c>
@@ -8986,25 +8990,25 @@
       <c r="B86" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
       <c r="E86" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F86" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
       <c r="I86" s="66"/>
-      <c r="J86" s="62"/>
+      <c r="J86" s="60"/>
       <c r="K86" s="32">
         <v>116.495531</v>
       </c>
       <c r="L86" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M86" s="62"/>
+      <c r="M86" s="60"/>
       <c r="N86" s="23">
         <v>44323</v>
       </c>
@@ -9077,10 +9081,10 @@
       <c r="B87" s="47">
         <v>44471.480555555601</v>
       </c>
-      <c r="C87" s="59">
+      <c r="C87" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D87" s="59" t="s">
+      <c r="D87" s="61" t="s">
         <v>62</v>
       </c>
       <c r="E87" s="48" t="s">
@@ -9089,16 +9093,16 @@
       <c r="F87" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="G87" s="59" t="s">
+      <c r="G87" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H87" s="59" t="s">
+      <c r="H87" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I87" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J87" s="59" t="s">
+      <c r="J87" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K87" s="50">
@@ -9107,7 +9111,7 @@
       <c r="L87" s="50">
         <v>39.894596</v>
       </c>
-      <c r="M87" s="59" t="s">
+      <c r="M87" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N87" s="23">
@@ -9182,25 +9186,25 @@
       <c r="B88" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="62"/>
       <c r="E88" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F88" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G88" s="61"/>
-      <c r="H88" s="60"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="62"/>
       <c r="I88" s="64"/>
-      <c r="J88" s="60"/>
+      <c r="J88" s="62"/>
       <c r="K88" s="22">
         <v>116.495531</v>
       </c>
       <c r="L88" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M88" s="60"/>
+      <c r="M88" s="62"/>
       <c r="N88" s="23">
         <v>44323</v>
       </c>
@@ -9273,25 +9277,25 @@
       <c r="B89" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
       <c r="E89" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="61"/>
-      <c r="H89" s="60"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="62"/>
       <c r="I89" s="64"/>
-      <c r="J89" s="60"/>
+      <c r="J89" s="62"/>
       <c r="K89" s="22">
         <v>116.495531</v>
       </c>
       <c r="L89" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M89" s="60"/>
+      <c r="M89" s="62"/>
       <c r="N89" s="23">
         <v>44323</v>
       </c>
@@ -9364,25 +9368,25 @@
       <c r="B90" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
       <c r="E90" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F90" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="61"/>
-      <c r="H90" s="60"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="62"/>
       <c r="I90" s="64"/>
-      <c r="J90" s="60"/>
+      <c r="J90" s="62"/>
       <c r="K90" s="22">
         <v>116.495531</v>
       </c>
       <c r="L90" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M90" s="60"/>
+      <c r="M90" s="62"/>
       <c r="N90" s="23">
         <v>44323</v>
       </c>
@@ -9455,25 +9459,25 @@
       <c r="B91" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="62"/>
       <c r="E91" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F91" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="61"/>
-      <c r="H91" s="60"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="62"/>
       <c r="I91" s="64"/>
-      <c r="J91" s="60"/>
+      <c r="J91" s="62"/>
       <c r="K91" s="22">
         <v>116.495531</v>
       </c>
       <c r="L91" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M91" s="60"/>
+      <c r="M91" s="62"/>
       <c r="N91" s="23">
         <v>44323</v>
       </c>
@@ -9546,25 +9550,25 @@
       <c r="B92" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
       <c r="E92" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F92" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="61"/>
-      <c r="H92" s="60"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="62"/>
       <c r="I92" s="64"/>
-      <c r="J92" s="60"/>
+      <c r="J92" s="62"/>
       <c r="K92" s="22">
         <v>116.495531</v>
       </c>
       <c r="L92" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M92" s="60"/>
+      <c r="M92" s="62"/>
       <c r="N92" s="23">
         <v>44323</v>
       </c>
@@ -9637,25 +9641,25 @@
       <c r="B93" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62"/>
       <c r="E93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F93" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="61"/>
-      <c r="H93" s="60"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="62"/>
       <c r="I93" s="64"/>
-      <c r="J93" s="60"/>
+      <c r="J93" s="62"/>
       <c r="K93" s="22">
         <v>116.495531</v>
       </c>
       <c r="L93" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M93" s="60"/>
+      <c r="M93" s="62"/>
       <c r="N93" s="23">
         <v>44323</v>
       </c>
@@ -9728,25 +9732,25 @@
       <c r="B94" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="62"/>
       <c r="E94" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F94" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G94" s="61"/>
-      <c r="H94" s="60"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="62"/>
       <c r="I94" s="64"/>
-      <c r="J94" s="60"/>
+      <c r="J94" s="62"/>
       <c r="K94" s="22">
         <v>116.495531</v>
       </c>
       <c r="L94" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M94" s="60"/>
+      <c r="M94" s="62"/>
       <c r="N94" s="23">
         <v>44323</v>
       </c>
@@ -9819,25 +9823,25 @@
       <c r="B95" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F95" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
       <c r="I95" s="65"/>
-      <c r="J95" s="61"/>
+      <c r="J95" s="59"/>
       <c r="K95" s="22">
         <v>116.495531</v>
       </c>
       <c r="L95" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M95" s="61"/>
+      <c r="M95" s="59"/>
       <c r="N95" s="23">
         <v>44323</v>
       </c>
@@ -9910,25 +9914,25 @@
       <c r="B96" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F96" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
       <c r="I96" s="65"/>
-      <c r="J96" s="61"/>
+      <c r="J96" s="59"/>
       <c r="K96" s="22">
         <v>116.495531</v>
       </c>
       <c r="L96" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M96" s="61"/>
+      <c r="M96" s="59"/>
       <c r="N96" s="23">
         <v>44323</v>
       </c>
@@ -10001,25 +10005,25 @@
       <c r="B97" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F97" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
       <c r="I97" s="65"/>
-      <c r="J97" s="61"/>
+      <c r="J97" s="59"/>
       <c r="K97" s="22">
         <v>116.495531</v>
       </c>
       <c r="L97" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M97" s="61"/>
+      <c r="M97" s="59"/>
       <c r="N97" s="23">
         <v>44323</v>
       </c>
@@ -10092,25 +10096,25 @@
       <c r="B98" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
       <c r="E98" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
       <c r="I98" s="66"/>
-      <c r="J98" s="62"/>
+      <c r="J98" s="60"/>
       <c r="K98" s="32">
         <v>116.495531</v>
       </c>
       <c r="L98" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M98" s="62"/>
+      <c r="M98" s="60"/>
       <c r="N98" s="33">
         <v>43592</v>
       </c>
@@ -10183,10 +10187,10 @@
       <c r="B99" s="47">
         <v>44471.480555555601</v>
       </c>
-      <c r="C99" s="59">
+      <c r="C99" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D99" s="59" t="s">
+      <c r="D99" s="61" t="s">
         <v>80</v>
       </c>
       <c r="E99" s="48" t="s">
@@ -10195,16 +10199,16 @@
       <c r="F99" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G99" s="59" t="s">
+      <c r="G99" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="H99" s="59" t="s">
+      <c r="H99" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I99" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J99" s="59" t="s">
+      <c r="J99" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K99" s="50">
@@ -10213,7 +10217,7 @@
       <c r="L99" s="50">
         <v>39.894596</v>
       </c>
-      <c r="M99" s="59" t="s">
+      <c r="M99" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N99" s="23">
@@ -10288,25 +10292,25 @@
       <c r="B100" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
       <c r="E100" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F100" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
       <c r="I100" s="64"/>
-      <c r="J100" s="60"/>
+      <c r="J100" s="62"/>
       <c r="K100" s="22">
         <v>116.495531</v>
       </c>
       <c r="L100" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M100" s="60"/>
+      <c r="M100" s="62"/>
       <c r="N100" s="23">
         <v>44323</v>
       </c>
@@ -10379,25 +10383,25 @@
       <c r="B101" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
       <c r="E101" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F101" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
       <c r="I101" s="64"/>
-      <c r="J101" s="60"/>
+      <c r="J101" s="62"/>
       <c r="K101" s="22">
         <v>116.495531</v>
       </c>
       <c r="L101" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M101" s="60"/>
+      <c r="M101" s="62"/>
       <c r="N101" s="23">
         <v>44323</v>
       </c>
@@ -10470,25 +10474,25 @@
       <c r="B102" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
       <c r="E102" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F102" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="60"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
       <c r="I102" s="64"/>
-      <c r="J102" s="60"/>
+      <c r="J102" s="62"/>
       <c r="K102" s="22">
         <v>116.495531</v>
       </c>
       <c r="L102" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M102" s="60"/>
+      <c r="M102" s="62"/>
       <c r="N102" s="23">
         <v>44323</v>
       </c>
@@ -10561,25 +10565,25 @@
       <c r="B103" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
       <c r="E103" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F103" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G103" s="60"/>
-      <c r="H103" s="60"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
       <c r="I103" s="64"/>
-      <c r="J103" s="60"/>
+      <c r="J103" s="62"/>
       <c r="K103" s="22">
         <v>116.495531</v>
       </c>
       <c r="L103" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M103" s="60"/>
+      <c r="M103" s="62"/>
       <c r="N103" s="23">
         <v>44323</v>
       </c>
@@ -10652,25 +10656,25 @@
       <c r="B104" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="62"/>
       <c r="E104" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F104" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="62"/>
       <c r="I104" s="64"/>
-      <c r="J104" s="60"/>
+      <c r="J104" s="62"/>
       <c r="K104" s="22">
         <v>116.495531</v>
       </c>
       <c r="L104" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M104" s="60"/>
+      <c r="M104" s="62"/>
       <c r="N104" s="23">
         <v>44323</v>
       </c>
@@ -10743,25 +10747,25 @@
       <c r="B105" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
       <c r="E105" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F105" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
       <c r="I105" s="64"/>
-      <c r="J105" s="60"/>
+      <c r="J105" s="62"/>
       <c r="K105" s="22">
         <v>116.495531</v>
       </c>
       <c r="L105" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M105" s="60"/>
+      <c r="M105" s="62"/>
       <c r="N105" s="23">
         <v>44323</v>
       </c>
@@ -10834,25 +10838,25 @@
       <c r="B106" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
       <c r="E106" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F106" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="60"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
       <c r="I106" s="64"/>
-      <c r="J106" s="60"/>
+      <c r="J106" s="62"/>
       <c r="K106" s="22">
         <v>116.495531</v>
       </c>
       <c r="L106" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M106" s="60"/>
+      <c r="M106" s="62"/>
       <c r="N106" s="23">
         <v>44323</v>
       </c>
@@ -10925,25 +10929,25 @@
       <c r="B107" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C107" s="61"/>
-      <c r="D107" s="61"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F107" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G107" s="60"/>
-      <c r="H107" s="61"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="59"/>
       <c r="I107" s="65"/>
-      <c r="J107" s="61"/>
+      <c r="J107" s="59"/>
       <c r="K107" s="22">
         <v>116.495531</v>
       </c>
       <c r="L107" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M107" s="61"/>
+      <c r="M107" s="59"/>
       <c r="N107" s="23">
         <v>44323</v>
       </c>
@@ -11016,25 +11020,25 @@
       <c r="B108" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C108" s="61"/>
-      <c r="D108" s="61"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F108" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="59"/>
       <c r="I108" s="65"/>
-      <c r="J108" s="61"/>
+      <c r="J108" s="59"/>
       <c r="K108" s="22">
         <v>116.495531</v>
       </c>
       <c r="L108" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M108" s="61"/>
+      <c r="M108" s="59"/>
       <c r="N108" s="23">
         <v>44323</v>
       </c>
@@ -11107,25 +11111,25 @@
       <c r="B109" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C109" s="61"/>
-      <c r="D109" s="61"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
       <c r="E109" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F109" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G109" s="60"/>
-      <c r="H109" s="61"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="59"/>
       <c r="I109" s="65"/>
-      <c r="J109" s="61"/>
+      <c r="J109" s="59"/>
       <c r="K109" s="22">
         <v>116.495531</v>
       </c>
       <c r="L109" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M109" s="61"/>
+      <c r="M109" s="59"/>
       <c r="N109" s="23">
         <v>44323</v>
       </c>
@@ -11198,25 +11202,25 @@
       <c r="B110" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
       <c r="E110" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F110" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
       <c r="I110" s="66"/>
-      <c r="J110" s="62"/>
+      <c r="J110" s="60"/>
       <c r="K110" s="32">
         <v>116.495531</v>
       </c>
       <c r="L110" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M110" s="62"/>
+      <c r="M110" s="60"/>
       <c r="N110" s="33">
         <v>43592</v>
       </c>
@@ -11289,10 +11293,10 @@
       <c r="B111" s="47">
         <v>44471.480555555601</v>
       </c>
-      <c r="C111" s="59">
+      <c r="C111" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D111" s="59" t="s">
+      <c r="D111" s="61" t="s">
         <v>80</v>
       </c>
       <c r="E111" s="48" t="s">
@@ -11301,16 +11305,16 @@
       <c r="F111" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G111" s="59" t="s">
+      <c r="G111" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="H111" s="59" t="s">
+      <c r="H111" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I111" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J111" s="59" t="s">
+      <c r="J111" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K111" s="50">
@@ -11319,7 +11323,7 @@
       <c r="L111" s="50">
         <v>39.894596</v>
       </c>
-      <c r="M111" s="59" t="s">
+      <c r="M111" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N111" s="23">
@@ -11394,25 +11398,25 @@
       <c r="B112" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="62"/>
       <c r="E112" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F112" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G112" s="61"/>
-      <c r="H112" s="60"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="62"/>
       <c r="I112" s="64"/>
-      <c r="J112" s="60"/>
+      <c r="J112" s="62"/>
       <c r="K112" s="22">
         <v>116.495531</v>
       </c>
       <c r="L112" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M112" s="60"/>
+      <c r="M112" s="62"/>
       <c r="N112" s="23">
         <v>43958</v>
       </c>
@@ -11485,25 +11489,25 @@
       <c r="B113" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
       <c r="E113" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F113" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G113" s="61"/>
-      <c r="H113" s="60"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="62"/>
       <c r="I113" s="64"/>
-      <c r="J113" s="60"/>
+      <c r="J113" s="62"/>
       <c r="K113" s="22">
         <v>116.495531</v>
       </c>
       <c r="L113" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M113" s="60"/>
+      <c r="M113" s="62"/>
       <c r="N113" s="23">
         <v>43958</v>
       </c>
@@ -11576,25 +11580,25 @@
       <c r="B114" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="62"/>
       <c r="E114" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F114" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G114" s="61"/>
-      <c r="H114" s="60"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="62"/>
       <c r="I114" s="64"/>
-      <c r="J114" s="60"/>
+      <c r="J114" s="62"/>
       <c r="K114" s="22">
         <v>116.495531</v>
       </c>
       <c r="L114" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M114" s="60"/>
+      <c r="M114" s="62"/>
       <c r="N114" s="23">
         <v>43958</v>
       </c>
@@ -11667,25 +11671,25 @@
       <c r="B115" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
       <c r="E115" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F115" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G115" s="61"/>
-      <c r="H115" s="60"/>
+      <c r="G115" s="59"/>
+      <c r="H115" s="62"/>
       <c r="I115" s="64"/>
-      <c r="J115" s="60"/>
+      <c r="J115" s="62"/>
       <c r="K115" s="22">
         <v>116.495531</v>
       </c>
       <c r="L115" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M115" s="60"/>
+      <c r="M115" s="62"/>
       <c r="N115" s="23">
         <v>43958</v>
       </c>
@@ -11758,25 +11762,25 @@
       <c r="B116" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
       <c r="E116" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F116" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G116" s="61"/>
-      <c r="H116" s="60"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="62"/>
       <c r="I116" s="64"/>
-      <c r="J116" s="60"/>
+      <c r="J116" s="62"/>
       <c r="K116" s="22">
         <v>116.495531</v>
       </c>
       <c r="L116" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M116" s="60"/>
+      <c r="M116" s="62"/>
       <c r="N116" s="23">
         <v>43958</v>
       </c>
@@ -11849,25 +11853,25 @@
       <c r="B117" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
       <c r="E117" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F117" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G117" s="61"/>
-      <c r="H117" s="60"/>
+      <c r="G117" s="59"/>
+      <c r="H117" s="62"/>
       <c r="I117" s="64"/>
-      <c r="J117" s="60"/>
+      <c r="J117" s="62"/>
       <c r="K117" s="22">
         <v>116.495531</v>
       </c>
       <c r="L117" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M117" s="60"/>
+      <c r="M117" s="62"/>
       <c r="N117" s="23">
         <v>43958</v>
       </c>
@@ -11940,25 +11944,25 @@
       <c r="B118" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C118" s="60"/>
-      <c r="D118" s="60"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="62"/>
       <c r="E118" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F118" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G118" s="61"/>
-      <c r="H118" s="60"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="62"/>
       <c r="I118" s="64"/>
-      <c r="J118" s="60"/>
+      <c r="J118" s="62"/>
       <c r="K118" s="22">
         <v>116.495531</v>
       </c>
       <c r="L118" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M118" s="60"/>
+      <c r="M118" s="62"/>
       <c r="N118" s="23">
         <v>43958</v>
       </c>
@@ -12031,25 +12035,25 @@
       <c r="B119" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C119" s="61"/>
-      <c r="D119" s="61"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
       <c r="E119" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F119" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G119" s="61"/>
-      <c r="H119" s="61"/>
+      <c r="G119" s="59"/>
+      <c r="H119" s="59"/>
       <c r="I119" s="65"/>
-      <c r="J119" s="61"/>
+      <c r="J119" s="59"/>
       <c r="K119" s="22">
         <v>116.495531</v>
       </c>
       <c r="L119" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M119" s="61"/>
+      <c r="M119" s="59"/>
       <c r="N119" s="23">
         <v>43958</v>
       </c>
@@ -12122,25 +12126,25 @@
       <c r="B120" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C120" s="61"/>
-      <c r="D120" s="61"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="59"/>
       <c r="E120" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F120" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G120" s="61"/>
-      <c r="H120" s="61"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="59"/>
       <c r="I120" s="65"/>
-      <c r="J120" s="61"/>
+      <c r="J120" s="59"/>
       <c r="K120" s="22">
         <v>116.495531</v>
       </c>
       <c r="L120" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M120" s="61"/>
+      <c r="M120" s="59"/>
       <c r="N120" s="23">
         <v>43958</v>
       </c>
@@ -12213,25 +12217,25 @@
       <c r="B121" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C121" s="61"/>
-      <c r="D121" s="61"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
       <c r="E121" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F121" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
       <c r="I121" s="65"/>
-      <c r="J121" s="61"/>
+      <c r="J121" s="59"/>
       <c r="K121" s="22">
         <v>116.495531</v>
       </c>
       <c r="L121" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M121" s="61"/>
+      <c r="M121" s="59"/>
       <c r="N121" s="23">
         <v>43958</v>
       </c>
@@ -12304,25 +12308,25 @@
       <c r="B122" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60"/>
       <c r="E122" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F122" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G122" s="62"/>
-      <c r="H122" s="62"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="60"/>
       <c r="I122" s="66"/>
-      <c r="J122" s="62"/>
+      <c r="J122" s="60"/>
       <c r="K122" s="32">
         <v>116.495531</v>
       </c>
       <c r="L122" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M122" s="62"/>
+      <c r="M122" s="60"/>
       <c r="N122" s="23">
         <v>43958</v>
       </c>
@@ -12395,10 +12399,10 @@
       <c r="B123" s="47">
         <v>44471.480555555601</v>
       </c>
-      <c r="C123" s="59">
+      <c r="C123" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D123" s="59" t="s">
+      <c r="D123" s="61" t="s">
         <v>80</v>
       </c>
       <c r="E123" s="48" t="s">
@@ -12407,16 +12411,16 @@
       <c r="F123" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G123" s="59" t="s">
+      <c r="G123" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="H123" s="59" t="s">
+      <c r="H123" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I123" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J123" s="59" t="s">
+      <c r="J123" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K123" s="50">
@@ -12425,7 +12429,7 @@
       <c r="L123" s="50">
         <v>39.894596</v>
       </c>
-      <c r="M123" s="59" t="s">
+      <c r="M123" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N123" s="51">
@@ -12500,25 +12504,25 @@
       <c r="B124" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="62"/>
       <c r="E124" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F124" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
+      <c r="G124" s="62"/>
+      <c r="H124" s="62"/>
       <c r="I124" s="64"/>
-      <c r="J124" s="60"/>
+      <c r="J124" s="62"/>
       <c r="K124" s="22">
         <v>116.495531</v>
       </c>
       <c r="L124" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M124" s="60"/>
+      <c r="M124" s="62"/>
       <c r="N124" s="23">
         <v>43592</v>
       </c>
@@ -12591,25 +12595,25 @@
       <c r="B125" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C125" s="60"/>
-      <c r="D125" s="60"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
       <c r="E125" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F125" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
       <c r="I125" s="64"/>
-      <c r="J125" s="60"/>
+      <c r="J125" s="62"/>
       <c r="K125" s="22">
         <v>116.495531</v>
       </c>
       <c r="L125" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M125" s="60"/>
+      <c r="M125" s="62"/>
       <c r="N125" s="23">
         <v>43592</v>
       </c>
@@ -12682,25 +12686,25 @@
       <c r="B126" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
       <c r="E126" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F126" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G126" s="60"/>
-      <c r="H126" s="60"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
       <c r="I126" s="64"/>
-      <c r="J126" s="60"/>
+      <c r="J126" s="62"/>
       <c r="K126" s="22">
         <v>116.495531</v>
       </c>
       <c r="L126" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M126" s="60"/>
+      <c r="M126" s="62"/>
       <c r="N126" s="23">
         <v>43592</v>
       </c>
@@ -12773,25 +12777,25 @@
       <c r="B127" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
       <c r="E127" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F127" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G127" s="60"/>
-      <c r="H127" s="60"/>
+      <c r="G127" s="62"/>
+      <c r="H127" s="62"/>
       <c r="I127" s="64"/>
-      <c r="J127" s="60"/>
+      <c r="J127" s="62"/>
       <c r="K127" s="22">
         <v>116.495531</v>
       </c>
       <c r="L127" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M127" s="60"/>
+      <c r="M127" s="62"/>
       <c r="N127" s="23">
         <v>43592</v>
       </c>
@@ -12864,25 +12868,25 @@
       <c r="B128" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C128" s="60"/>
-      <c r="D128" s="60"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
       <c r="E128" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F128" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G128" s="60"/>
-      <c r="H128" s="60"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62"/>
       <c r="I128" s="64"/>
-      <c r="J128" s="60"/>
+      <c r="J128" s="62"/>
       <c r="K128" s="22">
         <v>116.495531</v>
       </c>
       <c r="L128" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M128" s="60"/>
+      <c r="M128" s="62"/>
       <c r="N128" s="23">
         <v>43592</v>
       </c>
@@ -12955,25 +12959,25 @@
       <c r="B129" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C129" s="60"/>
-      <c r="D129" s="60"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
       <c r="E129" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F129" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G129" s="60"/>
-      <c r="H129" s="60"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
       <c r="I129" s="64"/>
-      <c r="J129" s="60"/>
+      <c r="J129" s="62"/>
       <c r="K129" s="22">
         <v>116.495531</v>
       </c>
       <c r="L129" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M129" s="60"/>
+      <c r="M129" s="62"/>
       <c r="N129" s="23">
         <v>43592</v>
       </c>
@@ -13046,25 +13050,25 @@
       <c r="B130" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="62"/>
       <c r="E130" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F130" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G130" s="60"/>
-      <c r="H130" s="60"/>
+      <c r="G130" s="62"/>
+      <c r="H130" s="62"/>
       <c r="I130" s="64"/>
-      <c r="J130" s="60"/>
+      <c r="J130" s="62"/>
       <c r="K130" s="22">
         <v>116.495531</v>
       </c>
       <c r="L130" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M130" s="60"/>
+      <c r="M130" s="62"/>
       <c r="N130" s="23">
         <v>43592</v>
       </c>
@@ -13137,25 +13141,25 @@
       <c r="B131" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C131" s="61"/>
-      <c r="D131" s="61"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="59"/>
       <c r="E131" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F131" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G131" s="60"/>
-      <c r="H131" s="61"/>
+      <c r="G131" s="62"/>
+      <c r="H131" s="59"/>
       <c r="I131" s="65"/>
-      <c r="J131" s="61"/>
+      <c r="J131" s="59"/>
       <c r="K131" s="22">
         <v>116.495531</v>
       </c>
       <c r="L131" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M131" s="61"/>
+      <c r="M131" s="59"/>
       <c r="N131" s="23">
         <v>43592</v>
       </c>
@@ -13228,25 +13232,25 @@
       <c r="B132" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C132" s="61"/>
-      <c r="D132" s="61"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="59"/>
       <c r="E132" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F132" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G132" s="60"/>
-      <c r="H132" s="61"/>
+      <c r="G132" s="62"/>
+      <c r="H132" s="59"/>
       <c r="I132" s="65"/>
-      <c r="J132" s="61"/>
+      <c r="J132" s="59"/>
       <c r="K132" s="22">
         <v>116.495531</v>
       </c>
       <c r="L132" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M132" s="61"/>
+      <c r="M132" s="59"/>
       <c r="N132" s="23">
         <v>43592</v>
       </c>
@@ -13319,25 +13323,25 @@
       <c r="B133" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C133" s="61"/>
-      <c r="D133" s="61"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F133" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G133" s="60"/>
-      <c r="H133" s="61"/>
+      <c r="G133" s="62"/>
+      <c r="H133" s="59"/>
       <c r="I133" s="65"/>
-      <c r="J133" s="61"/>
+      <c r="J133" s="59"/>
       <c r="K133" s="22">
         <v>116.495531</v>
       </c>
       <c r="L133" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M133" s="61"/>
+      <c r="M133" s="59"/>
       <c r="N133" s="23">
         <v>43592</v>
       </c>
@@ -13410,25 +13414,25 @@
       <c r="B134" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="60"/>
       <c r="E134" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F134" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G134" s="62"/>
-      <c r="H134" s="62"/>
+      <c r="G134" s="60"/>
+      <c r="H134" s="60"/>
       <c r="I134" s="66"/>
-      <c r="J134" s="62"/>
+      <c r="J134" s="60"/>
       <c r="K134" s="32">
         <v>116.495531</v>
       </c>
       <c r="L134" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M134" s="62"/>
+      <c r="M134" s="60"/>
       <c r="N134" s="33">
         <v>43592</v>
       </c>
@@ -13501,10 +13505,10 @@
       <c r="B135" s="47">
         <v>44471.480555555601</v>
       </c>
-      <c r="C135" s="59">
+      <c r="C135" s="61">
         <v>13800000001</v>
       </c>
-      <c r="D135" s="59" t="s">
+      <c r="D135" s="61" t="s">
         <v>80</v>
       </c>
       <c r="E135" s="48" t="s">
@@ -13513,16 +13517,16 @@
       <c r="F135" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G135" s="59" t="s">
+      <c r="G135" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="H135" s="59" t="s">
+      <c r="H135" s="61" t="s">
         <v>53</v>
       </c>
       <c r="I135" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J135" s="59" t="s">
+      <c r="J135" s="61" t="s">
         <v>54</v>
       </c>
       <c r="K135" s="50">
@@ -13531,7 +13535,7 @@
       <c r="L135" s="50">
         <v>39.894596</v>
       </c>
-      <c r="M135" s="59" t="s">
+      <c r="M135" s="61" t="s">
         <v>53</v>
       </c>
       <c r="N135" s="51">
@@ -13606,25 +13610,25 @@
       <c r="B136" s="20">
         <v>44472.605555555558</v>
       </c>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="62"/>
       <c r="E136" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F136" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G136" s="61"/>
-      <c r="H136" s="60"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="62"/>
       <c r="I136" s="64"/>
-      <c r="J136" s="60"/>
+      <c r="J136" s="62"/>
       <c r="K136" s="22">
         <v>116.495531</v>
       </c>
       <c r="L136" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M136" s="60"/>
+      <c r="M136" s="62"/>
       <c r="N136" s="23">
         <v>43592</v>
       </c>
@@ -13697,25 +13701,25 @@
       <c r="B137" s="20">
         <v>44473.438888888886</v>
       </c>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
       <c r="E137" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F137" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G137" s="61"/>
-      <c r="H137" s="60"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="62"/>
       <c r="I137" s="64"/>
-      <c r="J137" s="60"/>
+      <c r="J137" s="62"/>
       <c r="K137" s="22">
         <v>116.495531</v>
       </c>
       <c r="L137" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M137" s="60"/>
+      <c r="M137" s="62"/>
       <c r="N137" s="23">
         <v>43592</v>
       </c>
@@ -13788,25 +13792,25 @@
       <c r="B138" s="20">
         <v>44474.618055555555</v>
       </c>
-      <c r="C138" s="60"/>
-      <c r="D138" s="60"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="62"/>
       <c r="E138" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F138" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G138" s="61"/>
-      <c r="H138" s="60"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="62"/>
       <c r="I138" s="64"/>
-      <c r="J138" s="60"/>
+      <c r="J138" s="62"/>
       <c r="K138" s="22">
         <v>116.495531</v>
       </c>
       <c r="L138" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M138" s="60"/>
+      <c r="M138" s="62"/>
       <c r="N138" s="23">
         <v>43592</v>
       </c>
@@ -13879,25 +13883,25 @@
       <c r="B139" s="20">
         <v>44476.397222222222</v>
       </c>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="62"/>
       <c r="E139" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F139" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G139" s="61"/>
-      <c r="H139" s="60"/>
+      <c r="G139" s="59"/>
+      <c r="H139" s="62"/>
       <c r="I139" s="64"/>
-      <c r="J139" s="60"/>
+      <c r="J139" s="62"/>
       <c r="K139" s="22">
         <v>116.495531</v>
       </c>
       <c r="L139" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M139" s="60"/>
+      <c r="M139" s="62"/>
       <c r="N139" s="23">
         <v>43592</v>
       </c>
@@ -13970,25 +13974,25 @@
       <c r="B140" s="20">
         <v>44477.605555555558</v>
       </c>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="62"/>
       <c r="E140" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F140" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G140" s="61"/>
-      <c r="H140" s="60"/>
+      <c r="G140" s="59"/>
+      <c r="H140" s="62"/>
       <c r="I140" s="64"/>
-      <c r="J140" s="60"/>
+      <c r="J140" s="62"/>
       <c r="K140" s="22">
         <v>116.495531</v>
       </c>
       <c r="L140" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M140" s="60"/>
+      <c r="M140" s="62"/>
       <c r="N140" s="23">
         <v>43592</v>
       </c>
@@ -14061,25 +14065,25 @@
       <c r="B141" s="20">
         <v>44478.383333333331</v>
       </c>
-      <c r="C141" s="60"/>
-      <c r="D141" s="60"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="62"/>
       <c r="E141" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F141" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G141" s="61"/>
-      <c r="H141" s="60"/>
+      <c r="G141" s="59"/>
+      <c r="H141" s="62"/>
       <c r="I141" s="64"/>
-      <c r="J141" s="60"/>
+      <c r="J141" s="62"/>
       <c r="K141" s="22">
         <v>116.495531</v>
       </c>
       <c r="L141" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M141" s="60"/>
+      <c r="M141" s="62"/>
       <c r="N141" s="23">
         <v>43592</v>
       </c>
@@ -14152,25 +14156,25 @@
       <c r="B142" s="20">
         <v>44479.543055555558</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
+      <c r="C142" s="62"/>
+      <c r="D142" s="62"/>
       <c r="E142" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F142" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G142" s="61"/>
-      <c r="H142" s="60"/>
+      <c r="G142" s="59"/>
+      <c r="H142" s="62"/>
       <c r="I142" s="64"/>
-      <c r="J142" s="60"/>
+      <c r="J142" s="62"/>
       <c r="K142" s="22">
         <v>116.495531</v>
       </c>
       <c r="L142" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M142" s="60"/>
+      <c r="M142" s="62"/>
       <c r="N142" s="23">
         <v>43592</v>
       </c>
@@ -14243,25 +14247,25 @@
       <c r="B143" s="20">
         <v>44480.438888888886</v>
       </c>
-      <c r="C143" s="61"/>
-      <c r="D143" s="61"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="59"/>
       <c r="E143" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F143" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
+      <c r="G143" s="59"/>
+      <c r="H143" s="59"/>
       <c r="I143" s="65"/>
-      <c r="J143" s="61"/>
+      <c r="J143" s="59"/>
       <c r="K143" s="22">
         <v>116.495531</v>
       </c>
       <c r="L143" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M143" s="61"/>
+      <c r="M143" s="59"/>
       <c r="N143" s="23">
         <v>43592</v>
       </c>
@@ -14334,25 +14338,25 @@
       <c r="B144" s="20">
         <v>44481.605555555558</v>
       </c>
-      <c r="C144" s="61"/>
-      <c r="D144" s="61"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="59"/>
       <c r="E144" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F144" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
+      <c r="G144" s="59"/>
+      <c r="H144" s="59"/>
       <c r="I144" s="65"/>
-      <c r="J144" s="61"/>
+      <c r="J144" s="59"/>
       <c r="K144" s="22">
         <v>116.495531</v>
       </c>
       <c r="L144" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M144" s="61"/>
+      <c r="M144" s="59"/>
       <c r="N144" s="23">
         <v>43592</v>
       </c>
@@ -14425,25 +14429,25 @@
       <c r="B145" s="20">
         <v>44482.480740740742</v>
       </c>
-      <c r="C145" s="61"/>
-      <c r="D145" s="61"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
       <c r="E145" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F145" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G145" s="61"/>
-      <c r="H145" s="61"/>
+      <c r="G145" s="59"/>
+      <c r="H145" s="59"/>
       <c r="I145" s="65"/>
-      <c r="J145" s="61"/>
+      <c r="J145" s="59"/>
       <c r="K145" s="22">
         <v>116.495531</v>
       </c>
       <c r="L145" s="22">
         <v>39.894596</v>
       </c>
-      <c r="M145" s="61"/>
+      <c r="M145" s="59"/>
       <c r="N145" s="23">
         <v>43592</v>
       </c>
@@ -14516,25 +14520,25 @@
       <c r="B146" s="29">
         <v>44483.689074074071</v>
       </c>
-      <c r="C146" s="62"/>
-      <c r="D146" s="62"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
       <c r="E146" s="48" t="s">
         <v>85</v>
       </c>
       <c r="F146" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G146" s="62"/>
-      <c r="H146" s="62"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="60"/>
       <c r="I146" s="66"/>
-      <c r="J146" s="62"/>
+      <c r="J146" s="60"/>
       <c r="K146" s="32">
         <v>116.495531</v>
       </c>
       <c r="L146" s="32">
         <v>39.894596</v>
       </c>
-      <c r="M146" s="62"/>
+      <c r="M146" s="60"/>
       <c r="N146" s="33">
         <v>43592</v>
       </c>
@@ -14602,6 +14606,76 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="M123:M134"/>
+    <mergeCell ref="C135:C146"/>
+    <mergeCell ref="D135:D146"/>
+    <mergeCell ref="G135:G146"/>
+    <mergeCell ref="H135:H146"/>
+    <mergeCell ref="I135:I146"/>
+    <mergeCell ref="J135:J146"/>
+    <mergeCell ref="M135:M146"/>
+    <mergeCell ref="C123:C134"/>
+    <mergeCell ref="D123:D134"/>
+    <mergeCell ref="G123:G134"/>
+    <mergeCell ref="H123:H134"/>
+    <mergeCell ref="I123:I134"/>
+    <mergeCell ref="J123:J134"/>
+    <mergeCell ref="M99:M110"/>
+    <mergeCell ref="C111:C122"/>
+    <mergeCell ref="D111:D122"/>
+    <mergeCell ref="G111:G122"/>
+    <mergeCell ref="H111:H122"/>
+    <mergeCell ref="I111:I122"/>
+    <mergeCell ref="J111:J122"/>
+    <mergeCell ref="M111:M122"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="G99:G110"/>
+    <mergeCell ref="H99:H110"/>
+    <mergeCell ref="I99:I110"/>
+    <mergeCell ref="J99:J110"/>
+    <mergeCell ref="M75:M86"/>
+    <mergeCell ref="C87:C98"/>
+    <mergeCell ref="D87:D98"/>
+    <mergeCell ref="G87:G98"/>
+    <mergeCell ref="H87:H98"/>
+    <mergeCell ref="I87:I98"/>
+    <mergeCell ref="J87:J98"/>
+    <mergeCell ref="M87:M98"/>
+    <mergeCell ref="C75:C86"/>
+    <mergeCell ref="D75:D86"/>
+    <mergeCell ref="G75:G86"/>
+    <mergeCell ref="H75:H86"/>
+    <mergeCell ref="I75:I86"/>
+    <mergeCell ref="J75:J86"/>
+    <mergeCell ref="M51:M62"/>
+    <mergeCell ref="C63:C74"/>
+    <mergeCell ref="D63:D74"/>
+    <mergeCell ref="G63:G74"/>
+    <mergeCell ref="H63:H74"/>
+    <mergeCell ref="I63:I74"/>
+    <mergeCell ref="J63:J74"/>
+    <mergeCell ref="M63:M74"/>
+    <mergeCell ref="C51:C62"/>
+    <mergeCell ref="D51:D62"/>
+    <mergeCell ref="G51:G62"/>
+    <mergeCell ref="H51:H62"/>
+    <mergeCell ref="I51:I62"/>
+    <mergeCell ref="J51:J62"/>
+    <mergeCell ref="M27:M38"/>
+    <mergeCell ref="C39:C50"/>
+    <mergeCell ref="D39:D50"/>
+    <mergeCell ref="G39:G50"/>
+    <mergeCell ref="H39:H50"/>
+    <mergeCell ref="I39:I50"/>
+    <mergeCell ref="J39:J50"/>
+    <mergeCell ref="M39:M50"/>
+    <mergeCell ref="C27:C38"/>
+    <mergeCell ref="D27:D38"/>
+    <mergeCell ref="G27:G38"/>
+    <mergeCell ref="H27:H38"/>
+    <mergeCell ref="I27:I38"/>
+    <mergeCell ref="J27:J38"/>
     <mergeCell ref="M3:M14"/>
     <mergeCell ref="C15:C26"/>
     <mergeCell ref="D15:D26"/>
@@ -14616,76 +14690,6 @@
     <mergeCell ref="H3:H14"/>
     <mergeCell ref="I3:I14"/>
     <mergeCell ref="J3:J14"/>
-    <mergeCell ref="M27:M38"/>
-    <mergeCell ref="C39:C50"/>
-    <mergeCell ref="D39:D50"/>
-    <mergeCell ref="G39:G50"/>
-    <mergeCell ref="H39:H50"/>
-    <mergeCell ref="I39:I50"/>
-    <mergeCell ref="J39:J50"/>
-    <mergeCell ref="M39:M50"/>
-    <mergeCell ref="C27:C38"/>
-    <mergeCell ref="D27:D38"/>
-    <mergeCell ref="G27:G38"/>
-    <mergeCell ref="H27:H38"/>
-    <mergeCell ref="I27:I38"/>
-    <mergeCell ref="J27:J38"/>
-    <mergeCell ref="M51:M62"/>
-    <mergeCell ref="C63:C74"/>
-    <mergeCell ref="D63:D74"/>
-    <mergeCell ref="G63:G74"/>
-    <mergeCell ref="H63:H74"/>
-    <mergeCell ref="I63:I74"/>
-    <mergeCell ref="J63:J74"/>
-    <mergeCell ref="M63:M74"/>
-    <mergeCell ref="C51:C62"/>
-    <mergeCell ref="D51:D62"/>
-    <mergeCell ref="G51:G62"/>
-    <mergeCell ref="H51:H62"/>
-    <mergeCell ref="I51:I62"/>
-    <mergeCell ref="J51:J62"/>
-    <mergeCell ref="M75:M86"/>
-    <mergeCell ref="C87:C98"/>
-    <mergeCell ref="D87:D98"/>
-    <mergeCell ref="G87:G98"/>
-    <mergeCell ref="H87:H98"/>
-    <mergeCell ref="I87:I98"/>
-    <mergeCell ref="J87:J98"/>
-    <mergeCell ref="M87:M98"/>
-    <mergeCell ref="C75:C86"/>
-    <mergeCell ref="D75:D86"/>
-    <mergeCell ref="G75:G86"/>
-    <mergeCell ref="H75:H86"/>
-    <mergeCell ref="I75:I86"/>
-    <mergeCell ref="J75:J86"/>
-    <mergeCell ref="M99:M110"/>
-    <mergeCell ref="C111:C122"/>
-    <mergeCell ref="D111:D122"/>
-    <mergeCell ref="G111:G122"/>
-    <mergeCell ref="H111:H122"/>
-    <mergeCell ref="I111:I122"/>
-    <mergeCell ref="J111:J122"/>
-    <mergeCell ref="M111:M122"/>
-    <mergeCell ref="C99:C110"/>
-    <mergeCell ref="D99:D110"/>
-    <mergeCell ref="G99:G110"/>
-    <mergeCell ref="H99:H110"/>
-    <mergeCell ref="I99:I110"/>
-    <mergeCell ref="J99:J110"/>
-    <mergeCell ref="M123:M134"/>
-    <mergeCell ref="C135:C146"/>
-    <mergeCell ref="D135:D146"/>
-    <mergeCell ref="G135:G146"/>
-    <mergeCell ref="H135:H146"/>
-    <mergeCell ref="I135:I146"/>
-    <mergeCell ref="J135:J146"/>
-    <mergeCell ref="M135:M146"/>
-    <mergeCell ref="C123:C134"/>
-    <mergeCell ref="D123:D134"/>
-    <mergeCell ref="G123:G134"/>
-    <mergeCell ref="H123:H134"/>
-    <mergeCell ref="I123:I134"/>
-    <mergeCell ref="J123:J134"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
